--- a/realme/SEPTEMBER/All Details/27.09.2021/realme Bank Statement August-2021.xlsx
+++ b/realme/SEPTEMBER/All Details/27.09.2021/realme Bank Statement August-2021.xlsx
@@ -506,10 +506,10 @@
     <t>Date: 27.09.2021</t>
   </si>
   <si>
-    <t>Jilani Mobile</t>
+    <t>Tonu Bhai</t>
   </si>
   <si>
-    <t>Tonu Bhai</t>
+    <t>28.09.2021</t>
   </si>
 </sst>
 </file>
@@ -2636,6 +2636,18 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2663,12 +2675,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2679,12 +2685,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3305,7 +3305,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3979,12 +3979,18 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="15"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="B36" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="19">
+        <v>700000</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0</v>
+      </c>
       <c r="E36" s="202">
         <f t="shared" si="0"/>
-        <v>840000</v>
+        <v>1540000</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="1"/>
@@ -3992,12 +3998,18 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="15"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="19">
+        <v>145000</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0</v>
+      </c>
       <c r="E37" s="202">
         <f t="shared" ref="E37:E50" si="1">E36+C37-D37</f>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="1"/>
@@ -4010,7 +4022,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="1"/>
@@ -4023,7 +4035,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="1"/>
@@ -4036,7 +4048,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="1"/>
@@ -4049,7 +4061,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="1"/>
@@ -4062,7 +4074,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="1"/>
@@ -4075,7 +4087,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="1"/>
@@ -4088,7 +4100,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="1"/>
@@ -4101,7 +4113,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="1"/>
@@ -4114,7 +4126,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="1"/>
@@ -4127,7 +4139,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="1"/>
@@ -4139,7 +4151,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="1"/>
@@ -4151,7 +4163,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="1"/>
@@ -4163,7 +4175,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="202">
         <f t="shared" si="1"/>
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="1"/>
@@ -4173,7 +4185,7 @@
       <c r="B51" s="25"/>
       <c r="C51" s="21">
         <f>SUM(C5:C50)</f>
-        <v>13434423</v>
+        <v>14279423</v>
       </c>
       <c r="D51" s="21">
         <f>SUM(D5:D50)</f>
@@ -4218,67 +4230,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
     </row>
     <row r="2" spans="1:24" s="119" customFormat="1" ht="18">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="275" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="271"/>
-      <c r="O2" s="271"/>
-      <c r="P2" s="271"/>
-      <c r="Q2" s="271"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
     </row>
     <row r="3" spans="1:24" s="120" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="272" t="s">
+      <c r="A3" s="276" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="274"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="278"/>
       <c r="S3" s="50"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4287,52 +4299,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="122" customFormat="1">
-      <c r="A4" s="275" t="s">
+      <c r="A4" s="279" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="281" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="270" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="279" t="s">
+      <c r="D4" s="270" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="279" t="s">
+      <c r="E4" s="270" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="279" t="s">
+      <c r="F4" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="279" t="s">
+      <c r="G4" s="270" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="279" t="s">
+      <c r="H4" s="270" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="279" t="s">
+      <c r="I4" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="279" t="s">
+      <c r="J4" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="279" t="s">
+      <c r="K4" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="279" t="s">
+      <c r="L4" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="279" t="s">
+      <c r="M4" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="285" t="s">
+      <c r="N4" s="272" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="283" t="s">
+      <c r="O4" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="281" t="s">
+      <c r="P4" s="283" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="121" t="s">
@@ -4345,22 +4357,22 @@
       <c r="W4" s="124"/>
     </row>
     <row r="5" spans="1:24" s="122" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="276"/>
-      <c r="B5" s="278"/>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="286"/>
-      <c r="O5" s="284"/>
-      <c r="P5" s="282"/>
+      <c r="A5" s="280"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="271"/>
+      <c r="J5" s="271"/>
+      <c r="K5" s="271"/>
+      <c r="L5" s="271"/>
+      <c r="M5" s="271"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="286"/>
+      <c r="P5" s="284"/>
       <c r="Q5" s="126" t="s">
         <v>43</v>
       </c>
@@ -7446,6 +7458,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7462,9 +7477,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7476,7 +7488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
@@ -9461,13 +9473,11 @@
     <row r="30" spans="1:61">
       <c r="A30" s="44"/>
       <c r="B30" s="45"/>
-      <c r="C30" s="45">
-        <v>-703340</v>
-      </c>
+      <c r="C30" s="45"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45">
         <f t="shared" si="0"/>
-        <v>-703340</v>
+        <v>0</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="59"/>
@@ -9531,11 +9541,13 @@
     <row r="31" spans="1:61">
       <c r="A31" s="44"/>
       <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="C31" s="45">
+        <v>-574590</v>
+      </c>
       <c r="D31" s="45"/>
       <c r="E31" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-574590</v>
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="62"/>
@@ -9672,7 +9684,7 @@
       </c>
       <c r="C33" s="45">
         <f>SUM(C5:C32)</f>
-        <v>-703340</v>
+        <v>-574590</v>
       </c>
       <c r="D33" s="45">
         <f>SUM(D5:D32)</f>
@@ -9680,11 +9692,11 @@
       </c>
       <c r="E33" s="45">
         <f>SUM(E5:E32)</f>
-        <v>-703340</v>
+        <v>-574590</v>
       </c>
       <c r="F33" s="45">
         <f>B33-E33</f>
-        <v>703340</v>
+        <v>574590</v>
       </c>
       <c r="G33" s="62"/>
       <c r="H33" s="182"/>
@@ -10557,16 +10569,10 @@
       <c r="BI45" s="175"/>
     </row>
     <row r="46" spans="1:61">
-      <c r="A46" s="79" t="s">
-        <v>107</v>
-      </c>
+      <c r="A46" s="79"/>
       <c r="B46" s="77"/>
-      <c r="C46" s="236">
-        <v>128750</v>
-      </c>
-      <c r="D46" s="83" t="s">
-        <v>104</v>
-      </c>
+      <c r="C46" s="236"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="49"/>
       <c r="F46" s="179"/>
       <c r="G46" s="179"/>
@@ -10626,7 +10632,7 @@
     </row>
     <row r="47" spans="1:61">
       <c r="A47" s="79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="42"/>
       <c r="C47" s="236">
@@ -14932,7 +14938,7 @@
       <c r="B113" s="289"/>
       <c r="C113" s="251">
         <f>SUM(C37:C112)</f>
-        <v>703340</v>
+        <v>574590</v>
       </c>
       <c r="D113" s="250"/>
       <c r="F113" s="92"/>
@@ -15067,7 +15073,7 @@
       <c r="B115" s="291"/>
       <c r="C115" s="249">
         <f>C113+L136</f>
-        <v>703340</v>
+        <v>574590</v>
       </c>
       <c r="D115" s="248"/>
       <c r="F115" s="92"/>
@@ -17644,7 +17650,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17801,7 +17807,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="36">
-        <v>840000</v>
+        <v>1685000</v>
       </c>
       <c r="F6" s="1"/>
       <c r="J6" s="1"/>
@@ -17833,7 +17839,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="167">
-        <v>570795</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="29"/>
@@ -17938,7 +17944,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="36">
-        <v>703340</v>
+        <v>574590</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="29"/>
@@ -18013,7 +18019,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="36">
-        <v>282200</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>46</v>
@@ -18160,12 +18166,12 @@
       </c>
       <c r="E16" s="36">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>6181885</v>
+        <v>6045140</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="168">
         <f>B16-E16</f>
-        <v>0</v>
+        <v>136745</v>
       </c>
       <c r="H16" s="188"/>
       <c r="I16" s="1"/>
